--- a/results/prop_all_het.xlsx
+++ b/results/prop_all_het.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,7 +542,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -551,73 +551,73 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.5594735535137819</v>
+        <v>0.4171684609614176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.424819965234666</v>
+        <v>0.2428684386594489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.337409982617333</v>
+        <v>0.5059100216937331</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.662590017382667</v>
+        <v>0.2525757781704499</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>2000-2015</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.4171684609614176</v>
+        <v>0.5206741878483078</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -626,13 +626,13 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.2428684386594489</v>
+        <v>0.1897648498029088</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.5059100216937331</v>
+        <v>0.8102351501970912</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.2525757781704499</v>
+        <v>0.3560784923163362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.5206741878483078</v>
+        <v>0.2703836751283599</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.1897648498029088</v>
+        <v>0.2214006921573433</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.8102351501970912</v>
+        <v>0.7785993078426567</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.3560784923163362</v>
+        <v>0.5551708783257264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.2703836751283599</v>
+        <v>0.5039296448847823</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.2214006921573433</v>
+        <v>0.1978514972726261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -761,13 +761,13 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.7785993078426567</v>
+        <v>0.7169542469108315</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.5551708783257264</v>
+        <v>0.5780528314562708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.5039296448847823</v>
+        <v>0.462023308544289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.1978514972726261</v>
+        <v>0.1889596999188213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.7169542469108315</v>
+        <v>0.8110403000811787</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.5780528314562708</v>
+        <v>0.5251209812658713</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.462023308544289</v>
+        <v>0.2958650759426956</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="C34">
-        <v>0.1889596999188213</v>
+        <v>0.2125628863015668</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.8110403000811787</v>
+        <v>0.7874371136984333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -896,13 +896,13 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.5251209812658713</v>
+        <v>0.4836191342506285</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.2958650759426956</v>
+        <v>0.3813705449293036</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.2125628863015668</v>
+        <v>0.08375857777600072</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.7874371136984333</v>
+        <v>0.2207056142262384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.4836191342506285</v>
+        <v>0.7222590385966816</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.3813705449293036</v>
+        <v>0.5764691901218996</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.08375857777600072</v>
+        <v>0.1835396807424577</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.2207056142262384</v>
+        <v>0.6357293712634525</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.7222590385966816</v>
+        <v>0.6960758395357981</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1031,13 +1031,13 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.5764691901218996</v>
+        <v>0.4140806117053727</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.1835396807424577</v>
+        <v>0.1910155773376175</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1061,13 +1061,13 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.6357293712634525</v>
+        <v>0.7316603625222001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.6960758395357981</v>
+        <v>0.6905770294072381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C49">
-        <v>0.4140806117053727</v>
+        <v>0.4826115953098904</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1106,13 +1106,13 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.1910155773376175</v>
+        <v>0.2688661768310409</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1121,13 +1121,13 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.7316603625222001</v>
+        <v>0.6817246470162398</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1136,13 +1136,13 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.6905770294072381</v>
+        <v>0.7072576143236862</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C53">
-        <v>0.4826115953098904</v>
+        <v>0.5052162022360274</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.2688661768310409</v>
+        <v>0.2461064135984881</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="C55">
-        <v>0.6817246470162398</v>
+        <v>0.7538935864015118</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1196,13 +1196,13 @@
         </is>
       </c>
       <c r="C56">
-        <v>0.7072576143236862</v>
+        <v>0.708149648516621</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.5052162022360274</v>
+        <v>0.4219587751697844</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.2461064135984881</v>
+        <v>0.2738790261726042</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1241,13 +1241,13 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.7538935864015118</v>
+        <v>0.7261209738273958</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1256,13 +1256,13 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.708149648516621</v>
+        <v>0.5541402626827627</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.4219587751697844</v>
+        <v>0.2750876199242397</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C62">
-        <v>0.2738790261726042</v>
+        <v>0.2764824583141572</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C63">
-        <v>0.7261209738273958</v>
+        <v>0.6563033242468227</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1316,73 +1316,73 @@
         </is>
       </c>
       <c r="C64">
-        <v>0.5541402626827627</v>
+        <v>0.4301207247146757</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.2750876199242397</v>
+        <v>0.2788392840786268</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.2764824583141572</v>
+        <v>0.7211607159213732</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.6563033242468227</v>
+        <v>0.6861699797796709</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>2000-2015</t>
         </is>
       </c>
       <c r="C68">
-        <v>0.4301207247146757</v>
+        <v>0.5955774898918265</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C69">
-        <v>0.2788392840786268</v>
+        <v>0.07010377751426135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.7211607159213732</v>
+        <v>0.1204547065424193</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="C71">
-        <v>0.6861699797796709</v>
+        <v>0.5598869630498995</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1436,13 +1436,13 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.5955774898918265</v>
+        <v>0.4169188251762924</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.07010377751426135</v>
+        <v>0.1863339376395341</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>0.1204547065424193</v>
+        <v>0.7782141604351005</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="C75">
-        <v>0.5598869630498995</v>
+        <v>0.4064259060147998</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1496,13 +1496,13 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.4169188251762924</v>
+        <v>0.4831657285012544</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.1863339376395341</v>
+        <v>0.2350894946556195</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1526,13 +1526,13 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.7782141604351005</v>
+        <v>0.6850294099044969</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1541,13 +1541,13 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.4064259060147998</v>
+        <v>0.5453622316305259</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1556,13 +1556,13 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.4831657285012544</v>
+        <v>0.5127388192817691</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.2350894946556195</v>
+        <v>0.1320356321592057</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.6850294099044969</v>
+        <v>0.6082504137026928</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1601,141 +1601,81 @@
         </is>
       </c>
       <c r="C83">
-        <v>0.5453622316305259</v>
+        <v>0.7037458701669792</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.5127388192817691</v>
+        <v>0.2835186177337262</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.1320356321592057</v>
+        <v>0.7164813822662738</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="C86">
-        <v>0.6082504137026928</v>
+        <v>0.6338718647064695</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="C87">
-        <v>0.7037458701669792</v>
+        <v>0.2120035933779178</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="C88">
-        <v>0.2835186177337262</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>TLS</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="C89">
-        <v>0.7164813822662738</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>rural</t>
-        </is>
-      </c>
-      <c r="C90">
-        <v>0.6338718647064695</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="C91">
-        <v>0.2120035933779178</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="C92">
         <v>0.3084002338547534</v>
       </c>
     </row>
